--- a/Plugin_apartmentography/bin/Debug/9/Отчёты.xlsx
+++ b/Plugin_apartmentography/bin/Debug/9/Отчёты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2505F6E-64EC-42E6-8ECD-A3A65AAEB2E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938010C6-090D-4FE7-A400-CCA8A9BD0C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,12 +149,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,6 +265,14 @@
       <sz val="8"/>
       <name val="Factor A"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -693,169 +709,177 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="5" xr:uid="{F1AA8506-675C-442D-9C97-05146B166ED1}"/>
+    <cellStyle name="Обычный 3 3" xfId="6" xr:uid="{8C090AA1-1329-4800-9ACC-0A32F04DF0C7}"/>
+    <cellStyle name="Обычный 4" xfId="3" xr:uid="{6DAF2342-28F2-4D00-BE9D-333A1F234419}"/>
     <cellStyle name="Пояснение 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Процентный 3" xfId="4" xr:uid="{A29EB658-8E37-4267-9291-F6CD14B31031}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1136,7 +1160,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,21 +1401,21 @@
       <c r="B33" s="49"/>
       <c r="C33" s="27"/>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="49"/>
       <c r="C34" s="27"/>
     </row>
-    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="52"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="53" t="s">
         <v>38</v>
       </c>

--- a/Plugin_apartmentography/bin/Debug/9/Отчёты.xlsx
+++ b/Plugin_apartmentography/bin/Debug/9/Отчёты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.sinyagina\AppData\Roaming\Autodesk\Revit\Addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938010C6-090D-4FE7-A400-CCA8A9BD0C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F251B46B-ED65-4A16-9342-106C04D7FAA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ТЭП по модели АР" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>ТЕХНИКО-ЭКОНОМИЧЕКИЕ ПОКАЗАТЕЛИ ПРОЕКТА</t>
   </si>
@@ -143,13 +143,31 @@
   </si>
   <si>
     <t>Коэффициент обеспеченности</t>
+  </si>
+  <si>
+    <t>кв.м</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>шт/кв</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Ед.изм.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,11 +207,6 @@
       <name val="Factor A"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Factor A"/>
@@ -208,17 +221,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="64"/>
-      <name val="Factor A"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="64"/>
       <name val="Factor A"/>
     </font>
     <font>
@@ -273,6 +275,37 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="64"/>
+      <name val="Factor A"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="11">
@@ -452,51 +485,6 @@
     </border>
     <border>
       <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -651,14 +639,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -667,8 +685,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -679,32 +697,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,162 +744,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC4F7CB-41F2-418C-922A-6CBCBCF37326}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,575 +1198,649 @@
     <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="24"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="26"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="24"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="24"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="26"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="24"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="27"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="27"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="51" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="52"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="55"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="54" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="33"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="33"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="31"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="31"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="31"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="31"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="31"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="31"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="31"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="31"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="31"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="31"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="31"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="31"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="31"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="31"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="31"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="31"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="31"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="31"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="31"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0A87BA-C316-4196-9294-7260D5C7BFC0}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -1770,16 +1872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
